--- a/Q5/var_results.xlsx
+++ b/Q5/var_results.xlsx
@@ -20,16 +20,13 @@
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -40,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -48,24 +45,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -431,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,103 +426,411 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>var_nowcasting</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>var_nowcasting_1Q_ahead</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
+        <v>39083</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2.154398766480946</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9941195049981951</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>39173</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.7302101595760266</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.034079411981345</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>39264</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.192870452128279</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.161065658435959</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>39356</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.566849026567967</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.228298093992063</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>39448</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B6" t="n">
         <v>1.654122608444035</v>
       </c>
-      <c r="C2" t="n">
-        <v>1.172037821097134</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="C6" t="n">
+        <v>1.172037821097135</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>39539</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B7" t="n">
         <v>1.522459021999833</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C7" t="n">
         <v>1.332696980250923</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>39630</v>
       </c>
-      <c r="B4" t="n">
-        <v>0.9166119020000999</v>
-      </c>
-      <c r="C4" t="n">
+      <c r="B8" t="n">
+        <v>0.9166119020001005</v>
+      </c>
+      <c r="C8" t="n">
         <v>1.459868765090577</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>39722</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B9" t="n">
         <v>1.121785902817676</v>
       </c>
-      <c r="C5" t="n">
-        <v>1.334510497366438</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="C9" t="n">
+        <v>1.334510497366439</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>39814</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B10" t="n">
         <v>-2.692955269858706</v>
       </c>
-      <c r="C6" t="n">
-        <v>1.343839095675403</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="C10" t="n">
+        <v>1.343839095675404</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
         <v>39904</v>
       </c>
-      <c r="B7" t="n">
-        <v>0.7502336554219409</v>
-      </c>
-      <c r="C7" t="n">
-        <v>-3.677332321471095</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="B11" t="n">
+        <v>0.7502336554219394</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-3.677332321471098</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
         <v>39995</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B12" t="n">
         <v>2.187734806653661</v>
       </c>
-      <c r="C8" t="n">
-        <v>0.4441848243396473</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="C12" t="n">
+        <v>0.4441848243396465</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
         <v>40087</v>
       </c>
-      <c r="B9" t="n">
-        <v>1.342769971136093</v>
-      </c>
-      <c r="C9" t="n">
+      <c r="B13" t="n">
+        <v>1.342769971136092</v>
+      </c>
+      <c r="C13" t="n">
         <v>1.099914008645068</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>40179</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.204708120930498</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.248948043608894</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>40269</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.428733048129833</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.07045319631573</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>40360</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.144165313898465</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.154641497269584</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>40452</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.5189693319164095</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.155322600825025</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>40544</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.143141879874465</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.111383016851535</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>40634</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.533132211845667</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.121662762269559</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>40725</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.9517991931119953</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.117250660629517</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>40817</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.001835802418356</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.084162997987547</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>40909</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.8426704050584227</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.075319251774212</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>41000</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1.125795955123837</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.058824959820425</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>41091</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.8175227504794663</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.08517277731764</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>41183</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.6738976379696352</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.036351660326514</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>41275</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1.109811456615196</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.9893333249764649</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>41365</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1.013759755421017</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.003848300179371</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>41456</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.7654176490503691</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.9960472491796776</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>41548</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.6677853990567126</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.9969462035709199</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>41640</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1.07661658124758</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.9454660770100428</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>41730</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1.154346387425082</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.9821972000113565</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>41821</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.6350865427235352</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.9839359859139217</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>41913</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.7170115442613888</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.9434244533569964</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>42005</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.757647022251449</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.8952664558170212</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>42095</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1.017922189877818</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.8872595923635631</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>42186</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.7289862345169136</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.9325438835243066</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>42278</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1.175645320467324</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.8500576964764566</v>
       </c>
     </row>
   </sheetData>

--- a/Q5/var_results.xlsx
+++ b/Q5/var_results.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +442,10 @@
         <v>39083</v>
       </c>
       <c r="B2" t="n">
-        <v>2.154398766480946</v>
+        <v>2.154398766480947</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9941195049981951</v>
+        <v>0.9941195049981955</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>39173</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7302101595760266</v>
+        <v>0.7302101595760262</v>
       </c>
       <c r="C3" t="n">
         <v>1.034079411981345</v>
@@ -464,7 +464,7 @@
         <v>39264</v>
       </c>
       <c r="B4" t="n">
-        <v>1.192870452128279</v>
+        <v>1.192870452128278</v>
       </c>
       <c r="C4" t="n">
         <v>1.161065658435959</v>
@@ -475,10 +475,10 @@
         <v>39356</v>
       </c>
       <c r="B5" t="n">
-        <v>1.566849026567967</v>
+        <v>1.566849026567965</v>
       </c>
       <c r="C5" t="n">
-        <v>1.228298093992063</v>
+        <v>1.228298093992062</v>
       </c>
     </row>
     <row r="6">
@@ -489,7 +489,7 @@
         <v>1.654122608444035</v>
       </c>
       <c r="C6" t="n">
-        <v>1.172037821097135</v>
+        <v>1.172037821097134</v>
       </c>
     </row>
     <row r="7">
@@ -508,7 +508,7 @@
         <v>39630</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9166119020001005</v>
+        <v>0.9166119020000999</v>
       </c>
       <c r="C8" t="n">
         <v>1.459868765090577</v>
@@ -522,7 +522,7 @@
         <v>1.121785902817676</v>
       </c>
       <c r="C9" t="n">
-        <v>1.334510497366439</v>
+        <v>1.334510497366438</v>
       </c>
     </row>
     <row r="10">
@@ -533,7 +533,7 @@
         <v>-2.692955269858706</v>
       </c>
       <c r="C10" t="n">
-        <v>1.343839095675404</v>
+        <v>1.343839095675403</v>
       </c>
     </row>
     <row r="11">
@@ -541,10 +541,10 @@
         <v>39904</v>
       </c>
       <c r="B11" t="n">
-        <v>0.7502336554219394</v>
+        <v>0.7502336554219409</v>
       </c>
       <c r="C11" t="n">
-        <v>-3.677332321471098</v>
+        <v>-3.677332321471095</v>
       </c>
     </row>
     <row r="12">
@@ -555,7 +555,7 @@
         <v>2.187734806653661</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4441848243396465</v>
+        <v>0.4441848243396473</v>
       </c>
     </row>
     <row r="13">
@@ -563,7 +563,7 @@
         <v>40087</v>
       </c>
       <c r="B13" t="n">
-        <v>1.342769971136092</v>
+        <v>1.342769971136093</v>
       </c>
       <c r="C13" t="n">
         <v>1.099914008645068</v>
@@ -577,7 +577,7 @@
         <v>1.204708120930498</v>
       </c>
       <c r="C14" t="n">
-        <v>1.248948043608894</v>
+        <v>1.248948043608895</v>
       </c>
     </row>
     <row r="15">
@@ -585,10 +585,10 @@
         <v>40269</v>
       </c>
       <c r="B15" t="n">
-        <v>1.428733048129833</v>
+        <v>1.428733048129831</v>
       </c>
       <c r="C15" t="n">
-        <v>1.07045319631573</v>
+        <v>1.070453196315731</v>
       </c>
     </row>
     <row r="16">
@@ -599,7 +599,7 @@
         <v>1.144165313898465</v>
       </c>
       <c r="C16" t="n">
-        <v>1.154641497269584</v>
+        <v>1.154641497269583</v>
       </c>
     </row>
     <row r="17">
@@ -607,7 +607,7 @@
         <v>40452</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5189693319164095</v>
+        <v>0.5189693319164087</v>
       </c>
       <c r="C17" t="n">
         <v>1.155322600825025</v>
@@ -618,10 +618,10 @@
         <v>40544</v>
       </c>
       <c r="B18" t="n">
-        <v>1.143141879874465</v>
+        <v>1.143141879874466</v>
       </c>
       <c r="C18" t="n">
-        <v>1.111383016851535</v>
+        <v>1.111383016851534</v>
       </c>
     </row>
     <row r="19">
@@ -640,10 +640,10 @@
         <v>40725</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9517991931119953</v>
+        <v>0.9517991931119949</v>
       </c>
       <c r="C20" t="n">
-        <v>1.117250660629517</v>
+        <v>1.117250660629518</v>
       </c>
     </row>
     <row r="21">
@@ -662,7 +662,7 @@
         <v>40909</v>
       </c>
       <c r="B22" t="n">
-        <v>0.8426704050584227</v>
+        <v>0.8426704050584233</v>
       </c>
       <c r="C22" t="n">
         <v>1.075319251774212</v>
@@ -676,7 +676,7 @@
         <v>1.125795955123837</v>
       </c>
       <c r="C23" t="n">
-        <v>1.058824959820425</v>
+        <v>1.058824959820426</v>
       </c>
     </row>
     <row r="24">
@@ -684,7 +684,7 @@
         <v>41091</v>
       </c>
       <c r="B24" t="n">
-        <v>0.8175227504794663</v>
+        <v>0.817522750479466</v>
       </c>
       <c r="C24" t="n">
         <v>1.08517277731764</v>
@@ -695,10 +695,10 @@
         <v>41183</v>
       </c>
       <c r="B25" t="n">
-        <v>0.6738976379696352</v>
+        <v>0.673897637969635</v>
       </c>
       <c r="C25" t="n">
-        <v>1.036351660326514</v>
+        <v>1.036351660326513</v>
       </c>
     </row>
     <row r="26">
@@ -709,7 +709,7 @@
         <v>1.109811456615196</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9893333249764649</v>
+        <v>0.9893333249764651</v>
       </c>
     </row>
     <row r="27">
@@ -728,10 +728,10 @@
         <v>41456</v>
       </c>
       <c r="B28" t="n">
-        <v>0.7654176490503691</v>
+        <v>0.7654176490503689</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9960472491796776</v>
+        <v>0.9960472491796772</v>
       </c>
     </row>
     <row r="29">
@@ -739,10 +739,10 @@
         <v>41548</v>
       </c>
       <c r="B29" t="n">
-        <v>0.6677853990567126</v>
+        <v>0.6677853990567125</v>
       </c>
       <c r="C29" t="n">
-        <v>0.9969462035709199</v>
+        <v>0.99694620357092</v>
       </c>
     </row>
     <row r="30">
@@ -750,10 +750,10 @@
         <v>41640</v>
       </c>
       <c r="B30" t="n">
-        <v>1.07661658124758</v>
+        <v>1.076616581247579</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9454660770100428</v>
+        <v>0.9454660770100426</v>
       </c>
     </row>
     <row r="31">
@@ -761,10 +761,10 @@
         <v>41730</v>
       </c>
       <c r="B31" t="n">
-        <v>1.154346387425082</v>
+        <v>1.154346387425081</v>
       </c>
       <c r="C31" t="n">
-        <v>0.9821972000113565</v>
+        <v>0.9821972000113559</v>
       </c>
     </row>
     <row r="32">
@@ -772,10 +772,10 @@
         <v>41821</v>
       </c>
       <c r="B32" t="n">
-        <v>0.6350865427235352</v>
+        <v>0.6350865427235353</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9839359859139217</v>
+        <v>0.9839359859139212</v>
       </c>
     </row>
     <row r="33">
@@ -783,7 +783,7 @@
         <v>41913</v>
       </c>
       <c r="B33" t="n">
-        <v>0.7170115442613888</v>
+        <v>0.7170115442613886</v>
       </c>
       <c r="C33" t="n">
         <v>0.9434244533569964</v>
@@ -794,10 +794,10 @@
         <v>42005</v>
       </c>
       <c r="B34" t="n">
-        <v>0.757647022251449</v>
+        <v>0.7576470222514493</v>
       </c>
       <c r="C34" t="n">
-        <v>0.8952664558170212</v>
+        <v>0.8952664558170211</v>
       </c>
     </row>
     <row r="35">
@@ -808,7 +808,7 @@
         <v>1.017922189877818</v>
       </c>
       <c r="C35" t="n">
-        <v>0.8872595923635631</v>
+        <v>0.8872595923635632</v>
       </c>
     </row>
     <row r="36">
@@ -816,10 +816,10 @@
         <v>42186</v>
       </c>
       <c r="B36" t="n">
-        <v>0.7289862345169136</v>
+        <v>0.7289862345169141</v>
       </c>
       <c r="C36" t="n">
-        <v>0.9325438835243066</v>
+        <v>0.9325438835243067</v>
       </c>
     </row>
     <row r="37">
@@ -830,7 +830,18 @@
         <v>1.175645320467324</v>
       </c>
       <c r="C37" t="n">
-        <v>0.8500576964764566</v>
+        <v>0.8500576964764571</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>42370</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.9482336668285232</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.9728796654977537</v>
       </c>
     </row>
   </sheetData>
